--- a/Geral/2 Integrantes do Projeto/Integrantes do Grupo de OPE - Rafaela.xlsx
+++ b/Geral/2 Integrantes do Projeto/Integrantes do Grupo de OPE - Rafaela.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafa\Desktop\2 Integrantes do Projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafa\Desktop\001\Geral\2 Integrantes do Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC048D7E-CC21-4971-BC40-AC12570351AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684AD3C9-57C6-462B-96E0-D5167EB4E42A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="3840" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,14 +98,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -144,7 +140,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -155,8 +151,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -517,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -548,13 +544,13 @@
       <c r="A2" s="3">
         <v>1800585</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -562,13 +558,13 @@
       <c r="A3" s="3">
         <v>1800552</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -576,13 +572,13 @@
       <c r="A4" s="3">
         <v>1801066</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -590,13 +586,13 @@
       <c r="A5" s="3">
         <v>1800706</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -604,13 +600,13 @@
       <c r="A6" s="3">
         <v>1800394</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
